--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Requirements</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t xml:space="preserve">add QR code scanning </t>
+  </si>
+  <si>
+    <t>Create API for adding datasources, tags and information. Used for admin web app</t>
   </si>
 </sst>
 </file>
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B9"/>
+  <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,35 +447,58 @@
     </row>
     <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="B5">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="B7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
+      <c r="B8">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>8</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27815"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\FYPRepo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthew/Documents/FYPRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Requirements</t>
   </si>
@@ -54,12 +60,27 @@
   </si>
   <si>
     <t>Create API for adding datasources, tags and information. Used for admin web app</t>
+  </si>
+  <si>
+    <t>Creation of mongodb database</t>
+  </si>
+  <si>
+    <t>creation of nodejs web api</t>
+  </si>
+  <si>
+    <t>pulling of datafrom mongo db to google maps application</t>
+  </si>
+  <si>
+    <t>creation of tags and putting them into mongodb</t>
+  </si>
+  <si>
+    <t>ui/css of web app</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,19 +438,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B10"/>
+  <dimension ref="A2:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="52.77734375" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="1" max="1" width="52.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,7 +458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -445,7 +466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -453,7 +474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -461,7 +482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -469,7 +490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -477,7 +498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -485,7 +506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -493,12 +514,52 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27815"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthew/Documents/FYPRepo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Documents\FYPRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,16 +441,16 @@
   <dimension ref="A2:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="1" max="1" width="52.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,15 +458,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -474,7 +474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -482,7 +482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -490,7 +490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -498,7 +498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -506,7 +506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -514,7 +514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -522,7 +522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -530,7 +530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -554,7 +554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Requirements</t>
   </si>
@@ -38,50 +38,131 @@
     <t>Time to complete (Days)</t>
   </si>
   <si>
-    <t>Create Databse for storing points and tag information</t>
-  </si>
-  <si>
-    <t>Create web application for adding and editing location points and associating them with tags</t>
-  </si>
-  <si>
-    <t>Web Services for handling requests to SQL Server and IP21</t>
-  </si>
-  <si>
-    <t>Create Android application</t>
-  </si>
-  <si>
-    <t>provide Sabisu authentication in the application</t>
-  </si>
-  <si>
-    <t>add offline capabilities for storing tag locations and most recent data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add QR code scanning </t>
-  </si>
-  <si>
-    <t>Create API for adding datasources, tags and information. Used for admin web app</t>
-  </si>
-  <si>
-    <t>Creation of mongodb database</t>
-  </si>
-  <si>
     <t>creation of nodejs web api</t>
   </si>
   <si>
-    <t>pulling of datafrom mongo db to google maps application</t>
-  </si>
-  <si>
-    <t>creation of tags and putting them into mongodb</t>
-  </si>
-  <si>
     <t>ui/css of web app</t>
+  </si>
+  <si>
+    <t>Creation of sql database for location storage</t>
+  </si>
+  <si>
+    <t>pulling of datafrom sql to google maps application</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>creation of locations and putting them into SQL</t>
+  </si>
+  <si>
+    <t>testing of web app</t>
+  </si>
+  <si>
+    <t>rework of web app</t>
+  </si>
+  <si>
+    <t>Web app</t>
+  </si>
+  <si>
+    <t>C# web service</t>
+  </si>
+  <si>
+    <t>Set up ODBC IP21 connection</t>
+  </si>
+  <si>
+    <t>test pulling data from IP21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rework </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set up connection and query handling to SQL </t>
+  </si>
+  <si>
+    <t>SQL testing</t>
+  </si>
+  <si>
+    <t>rework</t>
+  </si>
+  <si>
+    <t>Android application</t>
+  </si>
+  <si>
+    <t>Set up of project and acquisition of relevant libraries</t>
+  </si>
+  <si>
+    <t>adding camera functionality</t>
+  </si>
+  <si>
+    <t>adding GPS/location functionality</t>
+  </si>
+  <si>
+    <t>adding compass - knowledge of direction facing</t>
+  </si>
+  <si>
+    <t>get data from Node JS web service</t>
+  </si>
+  <si>
+    <t>get data from C# web service</t>
+  </si>
+  <si>
+    <t>creation of non-expanded UI</t>
+  </si>
+  <si>
+    <t>adding count of items to the UI</t>
+  </si>
+  <si>
+    <t>creation of expanded UI</t>
+  </si>
+  <si>
+    <t>adding information from Node JS web service to cards</t>
+  </si>
+  <si>
+    <t>create details view UI</t>
+  </si>
+  <si>
+    <t>find suitable graphing library</t>
+  </si>
+  <si>
+    <t>display current data from IP21</t>
+  </si>
+  <si>
+    <t>display historical data in graph form</t>
+  </si>
+  <si>
+    <t>find suitable QR code library</t>
+  </si>
+  <si>
+    <t>1 day = ~7/8 hours</t>
+  </si>
+  <si>
+    <t>integrate QR code library</t>
+  </si>
+  <si>
+    <t>design QR code data structure</t>
+  </si>
+  <si>
+    <t>read data from QR code</t>
+  </si>
+  <si>
+    <t>open card with data read from QR code</t>
+  </si>
+  <si>
+    <t>total testing</t>
+  </si>
+  <si>
+    <t>30/01/2017 - 08/05/2017</t>
+  </si>
+  <si>
+    <t>current total estimate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,13 +178,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -118,12 +224,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,129 +545,366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B16"/>
+  <dimension ref="A2:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="52.77734375" customWidth="1"/>
     <col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="C4" s="2"/>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5">
+        <f>SUM(B4:B39)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
       <c r="B10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0.8</v>
+      </c>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>0.2</v>
+      </c>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0.8</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>0.75</v>
+      </c>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>0.75</v>
+      </c>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>0.5</v>
+      </c>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>0.5</v>
+      </c>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Week 1 - Sprint 1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Requirements</t>
   </si>
@@ -156,6 +157,24 @@
   </si>
   <si>
     <t>current total estimate</t>
+  </si>
+  <si>
+    <t>w/c 30/01/2017</t>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>tutor meeting: advice on proposal, notes in proposal document</t>
+  </si>
+  <si>
+    <t>meeting with Tim B: need to talk to Steve about using Business Framework and coming into Sabisu, reviewed estimates, agreed to meet in either one or two weeks</t>
+  </si>
+  <si>
+    <t>to do: tidy up of user interface/look more professional. Tidy up code, remove anything that is redundant. Create test plan</t>
+  </si>
+  <si>
+    <t>work done: added delete and update functionality to web application, fixed bugs regarding click events, delete dialog added and overlay. Created stored procedures</t>
   </si>
 </sst>
 </file>
@@ -186,7 +205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,12 +215,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,9 +241,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,7 +612,7 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="2"/>
       <c r="E5" t="s">
         <v>41</v>
       </c>
@@ -633,7 +646,7 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -642,7 +655,7 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -651,7 +664,7 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -665,7 +678,7 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -674,7 +687,7 @@
       <c r="B13">
         <v>0.2</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -683,7 +696,7 @@
       <c r="B14">
         <v>0.8</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -692,7 +705,7 @@
       <c r="B15">
         <v>3</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -701,7 +714,7 @@
       <c r="B16">
         <v>0.2</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -710,7 +723,7 @@
       <c r="B17">
         <v>0.8</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -724,7 +737,7 @@
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -733,7 +746,7 @@
       <c r="B20">
         <v>0.75</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -742,7 +755,7 @@
       <c r="B21">
         <v>0.75</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -751,7 +764,7 @@
       <c r="B22">
         <v>2</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -760,7 +773,7 @@
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -769,7 +782,7 @@
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -778,7 +791,7 @@
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -787,7 +800,7 @@
       <c r="B26">
         <v>2</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -796,7 +809,7 @@
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -805,7 +818,7 @@
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -814,7 +827,7 @@
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -823,7 +836,7 @@
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -832,7 +845,7 @@
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -841,7 +854,7 @@
       <c r="B32">
         <v>2</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -850,7 +863,7 @@
       <c r="B33">
         <v>0.5</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -859,7 +872,7 @@
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -868,7 +881,7 @@
       <c r="B35">
         <v>0.5</v>
       </c>
-      <c r="C35" s="5"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -877,7 +890,7 @@
       <c r="B36">
         <v>0.5</v>
       </c>
-      <c r="C36" s="5"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -886,7 +899,7 @@
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" s="5"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -895,7 +908,7 @@
       <c r="B38">
         <v>5</v>
       </c>
-      <c r="C38" s="5"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -904,7 +917,62 @@
       <c r="B39">
         <v>7</v>
       </c>
-      <c r="C39" s="5"/>
+      <c r="C39" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="5">
+        <v>42765</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="e">
+        <f>VALUE(Sheet1!A5)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>Requirements</t>
   </si>
@@ -171,10 +171,38 @@
     <t>meeting with Tim B: need to talk to Steve about using Business Framework and coming into Sabisu, reviewed estimates, agreed to meet in either one or two weeks</t>
   </si>
   <si>
-    <t>to do: tidy up of user interface/look more professional. Tidy up code, remove anything that is redundant. Create test plan</t>
-  </si>
-  <si>
     <t>work done: added delete and update functionality to web application, fixed bugs regarding click events, delete dialog added and overlay. Created stored procedures</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">to do: tidy up of user interface/look more professional. Tidy up code, remove anything that is redundant. Create test plan. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Change cards so they are fixed to location rather than pixel</t>
+    </r>
+  </si>
+  <si>
+    <t>talked to steve about using business framework, he said that it was owned by Sabic and licensed by Sabisu so I wont be able to use it. Also since I wont have access to IP21 it will be better to just have the data stored in SQL</t>
+  </si>
+  <si>
+    <t>Organised a visit to Sabisu for next Wednesday to show progress and get further advice</t>
+  </si>
+  <si>
+    <t>Created test plan for web application, most tests passed but a few bugs were found</t>
+  </si>
+  <si>
+    <t>Added more CSS and tidyed up code</t>
+  </si>
+  <si>
+    <t>Project proposal</t>
   </si>
 </sst>
 </file>
@@ -237,13 +265,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,7 +592,7 @@
   <dimension ref="A2:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -927,51 +958,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="152.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="1"/>
+      <c r="C3" s="6">
         <v>42765</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="e">
-        <f>VALUE(Sheet1!A5)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>46</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6">
+        <v>42766</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>Requirements</t>
   </si>
@@ -166,9 +166,6 @@
   </si>
   <si>
     <t>tutor meeting: advice on proposal, notes in proposal document</t>
-  </si>
-  <si>
-    <t>meeting with Tim B: need to talk to Steve about using Business Framework and coming into Sabisu, reviewed estimates, agreed to meet in either one or two weeks</t>
   </si>
   <si>
     <t>work done: added delete and update functionality to web application, fixed bugs regarding click events, delete dialog added and overlay. Created stored procedures</t>
@@ -203,6 +200,30 @@
   </si>
   <si>
     <t>Project proposal</t>
+  </si>
+  <si>
+    <t>meeting with Tim B: need to talk to Steve about using Business Framework and coming into Sabisu, reviewed estimates, agreed to meet in either one or two weeks. Also mentioned using a simplified version of anomoly detection</t>
+  </si>
+  <si>
+    <t>Worked on project proposal, need to review project handbook on what to include, include minimum requirements in the deliverables section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">need to proof read proposal and fix grammar </t>
+  </si>
+  <si>
+    <t>Met with Eudes, said to perhaps generalise the app to get it to work with information from the university. Energy levels etc. The app needs to appear useful. Anomoly detection would be very good</t>
+  </si>
+  <si>
+    <t>Proof read project proposal and added minimum requirements for each section in deliverables</t>
+  </si>
+  <si>
+    <t>CSS styling on web app and added jquery toast for instructions</t>
+  </si>
+  <si>
+    <t>Project proposal references</t>
+  </si>
+  <si>
+    <t>finshed off project proposal</t>
   </si>
 </sst>
 </file>
@@ -958,16 +979,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="152.109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -989,12 +1010,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1002,7 +1023,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1010,7 +1031,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1026,7 +1047,7 @@
         <v>42766</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1034,20 +1055,67 @@
         <v>9</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="6">
+        <v>42767</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D14" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="6">
+        <v>42768</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="6">
+        <v>42769</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" s="6">
+        <v>42770</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Week 1 - Sprint 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Week 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>Requirements</t>
   </si>
@@ -224,6 +225,36 @@
   </si>
   <si>
     <t>finshed off project proposal</t>
+  </si>
+  <si>
+    <t>w/c 06/02/2017</t>
+  </si>
+  <si>
+    <t>Meeting with Eudes about proposal feedback and tall about getting data</t>
+  </si>
+  <si>
+    <t>Met with people from the uni to get data for the application. Log in data has potential ethical issues, engery data requires talking to ITACS</t>
+  </si>
+  <si>
+    <t>Meeting with Tim talked about making the application more generic to work with any database. No longer connecting to IP21</t>
+  </si>
+  <si>
+    <t>Proposal rework</t>
+  </si>
+  <si>
+    <t>web app rework</t>
+  </si>
+  <si>
+    <t>went into Sabisu to talk to Steve, said that making the web app more generic would work and is a good idea. He can provide me with some data from Dev Paramop database. Also said I should look into mocking the data myself</t>
+  </si>
+  <si>
+    <t>proposal hand in</t>
+  </si>
+  <si>
+    <t>web app rework, created web service for pulling data about a location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">web app rework, need help getting the bounding box right. +/- 100m from current point </t>
   </si>
 </sst>
 </file>
@@ -286,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -296,6 +327,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -981,7 +1013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1122,4 +1154,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="100.109375" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="7">
+        <v>42772</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D3" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D4" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="7">
+        <v>42773</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C7" s="7">
+        <v>42774</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="7">
+        <v>42775</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="7">
+        <v>42776</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="7">
+        <v>42777</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="7">
+        <v>42778</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Week 1 - Sprint 1" sheetId="2" r:id="rId2"/>
     <sheet name="Week 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Week 3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>Requirements</t>
   </si>
@@ -255,6 +256,21 @@
   </si>
   <si>
     <t xml:space="preserve">web app rework, need help getting the bounding box right. +/- 100m from current point </t>
+  </si>
+  <si>
+    <t>w/c 13/02/2017</t>
+  </si>
+  <si>
+    <t>Got the radius from a point working, pulls back all points within 100m</t>
+  </si>
+  <si>
+    <t>Current Bugs/Issues</t>
+  </si>
+  <si>
+    <t>Web app dropdown box doesn’t change even though the viewmodel value is right</t>
+  </si>
+  <si>
+    <t>markers arent actually removed from the map, if the dialog is closed and another point put down in the same place it will create a cluster</t>
   </si>
 </sst>
 </file>
@@ -644,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,6 +770,9 @@
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -763,6 +782,9 @@
         <v>2</v>
       </c>
       <c r="C12" s="4"/>
+      <c r="E12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -772,6 +794,9 @@
         <v>0.2</v>
       </c>
       <c r="C13" s="4"/>
+      <c r="E13" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1160,7 +1185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1256,4 +1281,38 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="7">
+        <v>42779</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Week 1 - Sprint 1" sheetId="2" r:id="rId2"/>
     <sheet name="Week 2" sheetId="3" r:id="rId3"/>
     <sheet name="Week 3" sheetId="4" r:id="rId4"/>
+    <sheet name="week 4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>Requirements</t>
   </si>
@@ -271,6 +272,30 @@
   </si>
   <si>
     <t>markers arent actually removed from the map, if the dialog is closed and another point put down in the same place it will create a cluster</t>
+  </si>
+  <si>
+    <t>Testing of web service, started research on Android app</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Initial set up of Android application and installation of Kotlin language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera displays on device and current location is obtained </t>
+  </si>
+  <si>
+    <t>trying to resolve issue with using Volley to interact with web services</t>
+  </si>
+  <si>
+    <t>Got feedback on proposal, need to be more in depth with the description and make sure that complexity is conveyed</t>
+  </si>
+  <si>
+    <t>Meeting with Tim to discuss progress so far, mentioned the issue with Volley and I said that I would find someone to help</t>
+  </si>
+  <si>
+    <t>Given the brief for the project poster</t>
   </si>
 </sst>
 </file>
@@ -660,7 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1285,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1311,8 +1336,92 @@
         <v>71</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="7">
+        <v>42780</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="7">
+        <v>42781</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="7">
+        <v>42782</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="7">
+        <v>42783</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="7">
+        <v>42784</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="7">
+        <v>42785</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="77.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="7">
+        <v>42786</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C3" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
   <si>
     <t>Requirements</t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t>Given the brief for the project poster</t>
+  </si>
+  <si>
+    <t>Started work on project progress poster</t>
+  </si>
+  <si>
+    <t>still working on http requests. Volley does work as intended when the app is written in Java. Kolley is a kotlin library to use volley but is currently returning a byte array. Either rewrite the entire app in Java or see if its possible to do the requests in a java class file</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1398,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C4"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -1421,7 +1427,21 @@
         <v>82</v>
       </c>
     </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>42787</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C6" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
   <si>
     <t>Requirements</t>
   </si>
@@ -302,6 +302,18 @@
   </si>
   <si>
     <t>still working on http requests. Volley does work as intended when the app is written in Java. Kolley is a kotlin library to use volley but is currently returning a byte array. Either rewrite the entire app in Java or see if its possible to do the requests in a java class file</t>
+  </si>
+  <si>
+    <t>Got HTTP requests working using kolley and using gson to convert json to java classes</t>
+  </si>
+  <si>
+    <t>work on project progress poster</t>
+  </si>
+  <si>
+    <t>project poster</t>
+  </si>
+  <si>
+    <t>started designing UI elements</t>
   </si>
 </sst>
 </file>
@@ -326,7 +338,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -364,17 +376,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,6 +725,7 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>34</v>
       </c>
@@ -729,6 +743,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2"/>
+      <c r="D4" s="7"/>
       <c r="E4" t="s">
         <v>40</v>
       </c>
@@ -744,6 +759,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2"/>
+      <c r="D5" s="7"/>
       <c r="E5" t="s">
         <v>41</v>
       </c>
@@ -760,6 +776,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -769,6 +786,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -777,7 +795,8 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -786,7 +805,8 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -795,7 +815,8 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -812,7 +833,8 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="7"/>
       <c r="E12" t="s">
         <v>73</v>
       </c>
@@ -824,7 +846,8 @@
       <c r="B13">
         <v>0.2</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="7"/>
       <c r="E13" t="s">
         <v>74</v>
       </c>
@@ -836,7 +859,8 @@
       <c r="B14">
         <v>0.8</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -845,7 +869,8 @@
       <c r="B15">
         <v>3</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -854,147 +879,152 @@
       <c r="B16">
         <v>0.2</v>
       </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="2"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17">
         <v>0.8</v>
       </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20">
         <v>0.75</v>
       </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="2"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21">
         <v>0.75</v>
       </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="2"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>24</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -1003,7 +1033,7 @@
       <c r="B33">
         <v>0.5</v>
       </c>
-      <c r="C33" s="4"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -1012,7 +1042,7 @@
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" s="4"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -1021,7 +1051,7 @@
       <c r="B35">
         <v>0.5</v>
       </c>
-      <c r="C35" s="4"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -1030,7 +1060,7 @@
       <c r="B36">
         <v>0.5</v>
       </c>
-      <c r="C36" s="4"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -1039,7 +1069,7 @@
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" s="4"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -1048,7 +1078,7 @@
       <c r="B38">
         <v>5</v>
       </c>
-      <c r="C38" s="4"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -1057,7 +1087,7 @@
       <c r="B39">
         <v>7</v>
       </c>
-      <c r="C39" s="4"/>
+      <c r="C39" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1077,7 +1107,7 @@
   <cols>
     <col min="1" max="2" width="43" customWidth="1"/>
     <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="152.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="152.109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1091,10 +1121,10 @@
         <v>43</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>42765</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1102,7 +1132,7 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1110,7 +1140,7 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1118,7 +1148,7 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1131,10 +1161,10 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>42766</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1142,7 +1172,7 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1150,59 +1180,59 @@
       <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>42767</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>42768</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>42769</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>42770</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1224,7 +1254,7 @@
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="100.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="100.109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1233,78 +1263,78 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>42772</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>42773</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>42774</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>42775</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>42776</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>42777</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>42778</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1335,7 +1365,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>42779</v>
       </c>
       <c r="D2" t="s">
@@ -1343,7 +1373,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>42780</v>
       </c>
       <c r="D3" t="s">
@@ -1351,7 +1381,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>42781</v>
       </c>
       <c r="D4" t="s">
@@ -1359,7 +1389,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>42782</v>
       </c>
       <c r="D5" t="s">
@@ -1367,7 +1397,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>42783</v>
       </c>
       <c r="D6" t="s">
@@ -1375,7 +1405,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>42784</v>
       </c>
       <c r="D7" t="s">
@@ -1383,7 +1413,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>42785</v>
       </c>
       <c r="D8" t="s">
@@ -1398,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C6"/>
+  <dimension ref="B2:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1410,15 +1440,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>42786</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1428,7 +1458,7 @@
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>42787</v>
       </c>
       <c r="C5" t="s">
@@ -1436,8 +1466,42 @@
       </c>
     </row>
     <row r="6" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
+        <v>42788</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="7">
+        <v>42789</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
+        <v>42790</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Week 2" sheetId="3" r:id="rId3"/>
     <sheet name="Week 3" sheetId="4" r:id="rId4"/>
     <sheet name="week 4" sheetId="5" r:id="rId5"/>
+    <sheet name="Week 5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="96">
   <si>
     <t>Requirements</t>
   </si>
@@ -314,6 +315,27 @@
   </si>
   <si>
     <t>started designing UI elements</t>
+  </si>
+  <si>
+    <t>Project poster hand in/presentation</t>
+  </si>
+  <si>
+    <t>started work on report</t>
+  </si>
+  <si>
+    <t>created basic ui</t>
+  </si>
+  <si>
+    <t>compass implemented, reading values from the sensors</t>
+  </si>
+  <si>
+    <t>splitting received locations into north, south, east and west</t>
+  </si>
+  <si>
+    <t>possible battery drain issue</t>
+  </si>
+  <si>
+    <t>work on report</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1508,4 +1530,67 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="35.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="7">
+        <v>42793</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="7">
+        <v>42794</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
+        <v>42795</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>42796</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -18,6 +18,7 @@
     <sheet name="Week 3" sheetId="4" r:id="rId4"/>
     <sheet name="week 4" sheetId="5" r:id="rId5"/>
     <sheet name="Week 5" sheetId="6" r:id="rId6"/>
+    <sheet name="week 6" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="102">
   <si>
     <t>Requirements</t>
   </si>
@@ -336,6 +337,24 @@
   </si>
   <si>
     <t>work on report</t>
+  </si>
+  <si>
+    <t>grid ui created</t>
+  </si>
+  <si>
+    <t>card view implemented</t>
+  </si>
+  <si>
+    <t>testing of camera and location services</t>
+  </si>
+  <si>
+    <t>test http requests</t>
+  </si>
+  <si>
+    <t>test compass and ui</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -398,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -410,6 +429,9 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1119,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1258,6 +1280,11 @@
         <v>59</v>
       </c>
     </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1266,7 +1293,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
@@ -1360,6 +1387,11 @@
         <v>69</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1371,7 +1403,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1438,8 +1470,8 @@
       <c r="C8" s="6">
         <v>42785</v>
       </c>
-      <c r="D8" t="s">
-        <v>76</v>
+      <c r="D8" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1450,10 +1482,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C11"/>
+  <dimension ref="B2:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1526,6 +1558,11 @@
         <v>87</v>
       </c>
     </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1534,10 +1571,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G7"/>
+  <dimension ref="B2:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1590,6 +1627,68 @@
         <v>95</v>
       </c>
     </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
+        <v>42769</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="7">
+        <v>42770</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="7">
+        <v>42771</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="7">
+        <v>42772</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="108">
   <si>
     <t>Requirements</t>
   </si>
@@ -355,6 +355,24 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>meeting with tim, agreed to go over analytics next week. Should have graph and UI done by next week</t>
+  </si>
+  <si>
+    <t>Created ui</t>
+  </si>
+  <si>
+    <t>re-engineered location web service</t>
+  </si>
+  <si>
+    <t>implemented call to location web service to get location data</t>
+  </si>
+  <si>
+    <t>created program to take energy data from text files to SQL</t>
+  </si>
+  <si>
+    <t>started work on pulling location data through to app</t>
   </si>
 </sst>
 </file>
@@ -1573,7 +1591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1676,17 +1694,51 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="7">
         <v>42772</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="7">
+        <v>42773</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>42774</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="week 4" sheetId="5" r:id="rId5"/>
     <sheet name="Week 5" sheetId="6" r:id="rId6"/>
     <sheet name="week 6" sheetId="7" r:id="rId7"/>
+    <sheet name="Week 7" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="113">
   <si>
     <t>Requirements</t>
   </si>
@@ -373,6 +374,21 @@
   </si>
   <si>
     <t>started work on pulling location data through to app</t>
+  </si>
+  <si>
+    <t>data about location pulled into web app</t>
+  </si>
+  <si>
+    <t>Graph added to app using android graph view</t>
+  </si>
+  <si>
+    <t>Location data plotted on graph</t>
+  </si>
+  <si>
+    <t>Test pulling data and displaying graph</t>
+  </si>
+  <si>
+    <t>Work on report</t>
   </si>
 </sst>
 </file>
@@ -1592,7 +1608,7 @@
   <dimension ref="B2:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1647,7 +1663,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
-        <v>42769</v>
+        <v>42797</v>
       </c>
       <c r="C8" t="s">
         <v>76</v>
@@ -1655,7 +1671,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="7">
-        <v>42770</v>
+        <v>42798</v>
       </c>
       <c r="C9" t="s">
         <v>95</v>
@@ -1663,7 +1679,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
-        <v>42771</v>
+        <v>42799</v>
       </c>
       <c r="C10" t="s">
         <v>96</v>
@@ -1694,10 +1710,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C7"/>
+  <dimension ref="B2:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1741,6 +1757,56 @@
         <v>107</v>
       </c>
     </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
+        <v>42775</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="7">
+        <v>42776</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="7">
+        <v>42779</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="15996" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Week 5" sheetId="6" r:id="rId6"/>
     <sheet name="week 6" sheetId="7" r:id="rId7"/>
     <sheet name="Week 7" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="118">
   <si>
     <t>Requirements</t>
   </si>
@@ -389,6 +390,21 @@
   </si>
   <si>
     <t>Work on report</t>
+  </si>
+  <si>
+    <t>meeting with Tim, discussed using standard deviation to find outliers in data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">started work on implementing standard deviation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">implemented standard deviation, using the population version instead of sample </t>
+  </si>
+  <si>
+    <t>looking into implementing QR code scanning</t>
+  </si>
+  <si>
+    <t>issue with graph not displaying all data, cant scroll with dates</t>
   </si>
 </sst>
 </file>
@@ -1791,20 +1807,96 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C3"/>
+  <dimension ref="B3:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="7">
-        <v>42779</v>
+        <v>42807</v>
       </c>
       <c r="C3" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>42808</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
+        <v>42809</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
+        <v>42810</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
+        <v>42811</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="7">
+        <v>42812</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="7">
+        <v>42813</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="7">
+        <v>42814</v>
       </c>
     </row>
   </sheetData>
